--- a/women/women.xlsx
+++ b/women/women.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannews\Documents\2018 언론진흥재단 뉴스빅데이터 활용 교육\프로젝트\여성\결과\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannews\Documents\GitHub\2018BigKinds\women\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0FC6E28-7312-47E8-9A07-C8A14EB38993}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205F78FC-EB27-4F58-88A0-62C081A02956}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9492"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9492" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="3" r:id="rId1"/>
@@ -35,48 +35,48 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Query - women" description="Connection to the 'women' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Query - women" description="Connection to the 'women' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=women;Extended Properties=&quot;&quot;" command="SELECT * FROM [women]"/>
   </connection>
-  <connection id="2" keepAlive="1" name="Query - women-2012" description="Connection to the 'women-2012' query in the workbook." type="5" refreshedVersion="6" background="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" keepAlive="1" name="Query - women-2012" description="Connection to the 'women-2012' query in the workbook." type="5" refreshedVersion="6" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=women-2012;Extended Properties=&quot;&quot;" command="SELECT * FROM [women-2012]"/>
   </connection>
-  <connection id="3" keepAlive="1" name="Query - women2013-14" description="Connection to the 'women2013-14' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" keepAlive="1" name="Query - women2013-14" description="Connection to the 'women2013-14' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=women2013-14;Extended Properties=&quot;&quot;" command="SELECT * FROM [women2013-14]"/>
   </connection>
-  <connection id="4" keepAlive="1" name="Query - women2013-14 (2)" description="Connection to the 'women2013-14 (2)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" keepAlive="1" name="Query - women2013-14 (2)" description="Connection to the 'women2013-14 (2)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;women2013-14 (2)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [women2013-14 (2)]"/>
   </connection>
-  <connection id="5" keepAlive="1" name="Query - women2015" description="Connection to the 'women2015' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="5" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" keepAlive="1" name="Query - women2015" description="Connection to the 'women2015' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=women2015;Extended Properties=&quot;&quot;" command="SELECT * FROM [women2015]"/>
   </connection>
-  <connection id="6" keepAlive="1" name="Query - women2015 (2)" description="Connection to the 'women2015 (2)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="6" xr16:uid="{00000000-0015-0000-FFFF-FFFF05000000}" keepAlive="1" name="Query - women2015 (2)" description="Connection to the 'women2015 (2)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;women2015 (2)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [women2015 (2)]"/>
   </connection>
-  <connection id="7" keepAlive="1" name="Query - women2016" description="Connection to the 'women2016' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="7" xr16:uid="{00000000-0015-0000-FFFF-FFFF06000000}" keepAlive="1" name="Query - women2016" description="Connection to the 'women2016' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=women2016;Extended Properties=&quot;&quot;" command="SELECT * FROM [women2016]"/>
   </connection>
-  <connection id="8" keepAlive="1" name="Query - women2016 (2)" description="Connection to the 'women2016 (2)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="8" xr16:uid="{00000000-0015-0000-FFFF-FFFF07000000}" keepAlive="1" name="Query - women2016 (2)" description="Connection to the 'women2016 (2)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;women2016 (2)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [women2016 (2)]"/>
   </connection>
-  <connection id="9" keepAlive="1" name="Query - women2017" description="Connection to the 'women2017' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="9" xr16:uid="{00000000-0015-0000-FFFF-FFFF08000000}" keepAlive="1" name="Query - women2017" description="Connection to the 'women2017' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=women2017;Extended Properties=&quot;&quot;" command="SELECT * FROM [women2017]"/>
   </connection>
-  <connection id="10" keepAlive="1" name="Query - women2017 (2)" description="Connection to the 'women2017 (2)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="10" xr16:uid="{00000000-0015-0000-FFFF-FFFF09000000}" keepAlive="1" name="Query - women2017 (2)" description="Connection to the 'women2017 (2)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;women2017 (2)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [women2017 (2)]"/>
   </connection>
-  <connection id="11" keepAlive="1" name="Query - women2018" description="Connection to the 'women2018' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="11" xr16:uid="{00000000-0015-0000-FFFF-FFFF0A000000}" keepAlive="1" name="Query - women2018" description="Connection to the 'women2018' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=women2018;Extended Properties=&quot;&quot;" command="SELECT * FROM [women2018]"/>
   </connection>
-  <connection id="12" keepAlive="1" name="Query - women2018 (2)" description="Connection to the 'women2018 (2)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="12" xr16:uid="{00000000-0015-0000-FFFF-FFFF0B000000}" keepAlive="1" name="Query - women2018 (2)" description="Connection to the 'women2018 (2)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;women2018 (2)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [women2018 (2)]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4929" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4929" uniqueCount="270">
   <si>
     <t>vectordata</t>
   </si>
@@ -774,9 +774,6 @@
     <t>year4</t>
   </si>
   <si>
-    <t>vectordata_15</t>
-  </si>
-  <si>
     <t>Freq_27</t>
   </si>
   <si>
@@ -818,11 +815,83 @@
   <si>
     <t>year20</t>
   </si>
+  <si>
+    <t>vectordata1</t>
+  </si>
+  <si>
+    <t>vectordata22</t>
+  </si>
+  <si>
+    <t>vectordata3</t>
+  </si>
+  <si>
+    <t>vectordata4</t>
+  </si>
+  <si>
+    <t>vectordata5</t>
+  </si>
+  <si>
+    <t>vectordata6</t>
+  </si>
+  <si>
+    <t>vectordata7</t>
+  </si>
+  <si>
+    <t>vectordata8</t>
+  </si>
+  <si>
+    <t>vectordata10</t>
+  </si>
+  <si>
+    <t>vectordata11</t>
+  </si>
+  <si>
+    <t>vectordata13</t>
+  </si>
+  <si>
+    <t>vectordata14</t>
+  </si>
+  <si>
+    <t>vectordata16</t>
+  </si>
+  <si>
+    <t>vectordata17</t>
+  </si>
+  <si>
+    <t>vectordata19</t>
+  </si>
+  <si>
+    <t>vectordata20</t>
+  </si>
+  <si>
+    <t>vectordata21</t>
+  </si>
+  <si>
+    <t>vectordata23</t>
+  </si>
+  <si>
+    <t>vectordata24</t>
+  </si>
+  <si>
+    <t>vectordata25</t>
+  </si>
+  <si>
+    <t>vectordata26</t>
+  </si>
+  <si>
+    <t>vectordata29</t>
+  </si>
+  <si>
+    <t>vectordata27</t>
+  </si>
+  <si>
+    <t>vectordata28</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -1440,48 +1509,109 @@
   </cellStyles>
   <dxfs count="125">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -4072,109 +4202,48 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4190,7 +4259,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_3" connectionId="3" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="7">
     <queryTableFields count="6">
       <queryTableField id="1" name="vectordata" tableColumnId="1"/>
@@ -4205,7 +4274,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_4" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_4" connectionId="5" xr16:uid="{00000000-0016-0000-0200-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="vectordata" tableColumnId="1"/>
@@ -4217,7 +4286,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_5" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_5" connectionId="7" xr16:uid="{00000000-0016-0000-0300-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="vectordata" tableColumnId="1"/>
@@ -4229,7 +4298,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_6" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_6" connectionId="9" xr16:uid="{00000000-0016-0000-0400-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="vectordata" tableColumnId="1"/>
@@ -4241,7 +4310,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_7" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_7" connectionId="11" xr16:uid="{00000000-0016-0000-0500-000004000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="vectordata" tableColumnId="1"/>
@@ -4253,7 +4322,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{00000000-0016-0000-0600-000005000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="88">
     <queryTableFields count="87">
       <queryTableField id="1" name="vectordata" tableColumnId="1"/>
@@ -4349,255 +4418,255 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="A1:CI51" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="89">
-  <autoFilter ref="A1:CI51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A1:CI51" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123" tableBorderDxfId="122">
+  <autoFilter ref="A1:CI51" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="87">
-    <tableColumn id="1" name="vectordata" dataDxfId="88"/>
-    <tableColumn id="2" name="Freq" dataDxfId="87"/>
-    <tableColumn id="3" name="year" dataDxfId="86"/>
-    <tableColumn id="4" name="vectordata_1" dataDxfId="85"/>
-    <tableColumn id="5" name="Freq_2" dataDxfId="84"/>
-    <tableColumn id="6" name="year_3" dataDxfId="83"/>
-    <tableColumn id="7" name="vectordata_4" dataDxfId="82"/>
-    <tableColumn id="8" name="Freq_5" dataDxfId="81"/>
-    <tableColumn id="9" name="year_6" dataDxfId="80"/>
-    <tableColumn id="10" name="vectordata_7" dataDxfId="79"/>
-    <tableColumn id="11" name="Freq_8" dataDxfId="78"/>
-    <tableColumn id="12" name="year_9" dataDxfId="77"/>
-    <tableColumn id="13" name="vectordata_10" dataDxfId="76"/>
-    <tableColumn id="14" name="Freq_11" dataDxfId="75"/>
-    <tableColumn id="15" name="year_12" dataDxfId="74"/>
-    <tableColumn id="16" name="vectordata_13" dataDxfId="73"/>
-    <tableColumn id="17" name="Freq_14" dataDxfId="72"/>
-    <tableColumn id="18" name="year_15" dataDxfId="71"/>
-    <tableColumn id="19" name="vectordata_16" dataDxfId="70"/>
-    <tableColumn id="20" name="Freq_17" dataDxfId="69"/>
-    <tableColumn id="21" name="year_18" dataDxfId="68"/>
-    <tableColumn id="22" name="vectordata_19" dataDxfId="67"/>
-    <tableColumn id="23" name="Freq_20" dataDxfId="66"/>
-    <tableColumn id="24" name="year_21" dataDxfId="65"/>
-    <tableColumn id="25" name="vectordata_22" dataDxfId="64"/>
-    <tableColumn id="26" name="Freq_23" dataDxfId="63"/>
-    <tableColumn id="27" name="year_24" dataDxfId="62"/>
-    <tableColumn id="28" name="vectordata_25" dataDxfId="61"/>
-    <tableColumn id="29" name="Freq_26" dataDxfId="60"/>
-    <tableColumn id="30" name="year_27" dataDxfId="59"/>
-    <tableColumn id="31" name="vectordata_28" dataDxfId="58"/>
-    <tableColumn id="32" name="Freq_29" dataDxfId="57"/>
-    <tableColumn id="33" name="year_30" dataDxfId="56"/>
-    <tableColumn id="34" name="vectordata_31" dataDxfId="55"/>
-    <tableColumn id="35" name="Freq_32" dataDxfId="54"/>
-    <tableColumn id="36" name="year_33" dataDxfId="53"/>
-    <tableColumn id="37" name="vectordata_34" dataDxfId="52"/>
-    <tableColumn id="38" name="Freq_35" dataDxfId="51"/>
-    <tableColumn id="39" name="year_36" dataDxfId="50"/>
-    <tableColumn id="40" name="vectordata_37" dataDxfId="49"/>
-    <tableColumn id="41" name="Freq_38" dataDxfId="48"/>
-    <tableColumn id="42" name="year_39" dataDxfId="47"/>
-    <tableColumn id="43" name="vectordata_40" dataDxfId="46"/>
-    <tableColumn id="44" name="Freq_41" dataDxfId="45"/>
-    <tableColumn id="45" name="year_42" dataDxfId="44"/>
-    <tableColumn id="46" name="vectordata_43" dataDxfId="43"/>
-    <tableColumn id="47" name="Freq_44" dataDxfId="42"/>
-    <tableColumn id="48" name="year_45" dataDxfId="41"/>
-    <tableColumn id="49" name="vectordata_46" dataDxfId="40"/>
-    <tableColumn id="50" name="Freq_47" dataDxfId="39"/>
-    <tableColumn id="51" name="year_48" dataDxfId="38"/>
-    <tableColumn id="52" name="vectordata_49" dataDxfId="37"/>
-    <tableColumn id="53" name="Freq_50" dataDxfId="36"/>
-    <tableColumn id="54" name="year_51" dataDxfId="35"/>
-    <tableColumn id="55" name="vectordata_52" dataDxfId="34"/>
-    <tableColumn id="56" name="Freq_53" dataDxfId="33"/>
-    <tableColumn id="57" name="year_54" dataDxfId="32"/>
-    <tableColumn id="58" name="vectordata_55" dataDxfId="31"/>
-    <tableColumn id="59" name="Freq_56" dataDxfId="30"/>
-    <tableColumn id="60" name="year_57" dataDxfId="29"/>
-    <tableColumn id="61" name="vectordata_58" dataDxfId="28"/>
-    <tableColumn id="62" name="Freq_59" dataDxfId="27"/>
-    <tableColumn id="63" name="year_60" dataDxfId="26"/>
-    <tableColumn id="64" name="vectordata_61" dataDxfId="25"/>
-    <tableColumn id="65" name="Freq_62" dataDxfId="24"/>
-    <tableColumn id="66" name="year_63" dataDxfId="23"/>
-    <tableColumn id="67" name="vectordata_64" dataDxfId="22"/>
-    <tableColumn id="68" name="Freq_65" dataDxfId="21"/>
-    <tableColumn id="69" name="year_66" dataDxfId="20"/>
-    <tableColumn id="70" name="vectordata2" dataDxfId="19"/>
-    <tableColumn id="71" name="Freq3" dataDxfId="18"/>
-    <tableColumn id="72" name="year4" dataDxfId="17"/>
-    <tableColumn id="73" name="vectordata_15" dataDxfId="16"/>
-    <tableColumn id="74" name="Freq_27" dataDxfId="15"/>
-    <tableColumn id="75" name="year_38" dataDxfId="14"/>
-    <tableColumn id="76" name="vectordata9" dataDxfId="13"/>
-    <tableColumn id="77" name="Freq10" dataDxfId="12"/>
-    <tableColumn id="78" name="year11" dataDxfId="11"/>
-    <tableColumn id="79" name="vectordata12" dataDxfId="10"/>
-    <tableColumn id="80" name="Freq13" dataDxfId="9"/>
-    <tableColumn id="81" name="year14" dataDxfId="8"/>
-    <tableColumn id="82" name="vectordata15" dataDxfId="7"/>
-    <tableColumn id="83" name="Freq16" dataDxfId="6"/>
-    <tableColumn id="84" name="year17" dataDxfId="5"/>
-    <tableColumn id="85" name="vectordata18" dataDxfId="4"/>
-    <tableColumn id="86" name="Freq19" dataDxfId="3"/>
-    <tableColumn id="87" name="year20" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="vectordata1" dataDxfId="121"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Freq" dataDxfId="120"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="year" dataDxfId="119"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="vectordata2" dataDxfId="118"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Freq_2" dataDxfId="117"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="year_3" dataDxfId="116"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="vectordata3" dataDxfId="115"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Freq_5" dataDxfId="114"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="year_6" dataDxfId="113"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="vectordata4" dataDxfId="112"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Freq_8" dataDxfId="111"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="year_9" dataDxfId="110"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="vectordata5" dataDxfId="109"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Freq_11" dataDxfId="108"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="year_12" dataDxfId="107"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="vectordata6" dataDxfId="106"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Freq_14" dataDxfId="105"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="year_15" dataDxfId="104"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="vectordata7" dataDxfId="103"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Freq_17" dataDxfId="102"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="year_18" dataDxfId="101"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="vectordata8" dataDxfId="100"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Freq_20" dataDxfId="99"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="year_21" dataDxfId="98"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="vectordata9" dataDxfId="97"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Freq_23" dataDxfId="96"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="year_24" dataDxfId="95"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="vectordata10" dataDxfId="94"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Freq_26" dataDxfId="93"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="year_27" dataDxfId="92"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="vectordata11" dataDxfId="91"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Freq_29" dataDxfId="90"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="year_30" dataDxfId="89"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="vectordata12" dataDxfId="88"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Freq_32" dataDxfId="87"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="year_33" dataDxfId="86"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="vectordata13" dataDxfId="85"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Freq_35" dataDxfId="84"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="year_36" dataDxfId="83"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="vectordata14" dataDxfId="82"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Freq_38" dataDxfId="81"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="year_39" dataDxfId="80"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="vectordata15" dataDxfId="79"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="Freq_41" dataDxfId="78"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="year_42" dataDxfId="77"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="vectordata16" dataDxfId="76"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="Freq_44" dataDxfId="75"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="year_45" dataDxfId="74"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="vectordata17" dataDxfId="73"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="Freq_47" dataDxfId="72"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="year_48" dataDxfId="71"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="vectordata18" dataDxfId="70"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="Freq_50" dataDxfId="69"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="year_51" dataDxfId="68"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" name="vectordata19" dataDxfId="67"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" name="Freq_53" dataDxfId="66"/>
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" name="year_54" dataDxfId="65"/>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" name="vectordata20" dataDxfId="64"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" name="Freq_56" dataDxfId="63"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" name="year_57" dataDxfId="62"/>
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" name="vectordata21" dataDxfId="61"/>
+    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" name="Freq_59" dataDxfId="60"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" name="year_60" dataDxfId="59"/>
+    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0000-000040000000}" name="vectordata22" dataDxfId="58"/>
+    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0000-000041000000}" name="Freq_62" dataDxfId="57"/>
+    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0000-000042000000}" name="year_63" dataDxfId="56"/>
+    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0000-000043000000}" name="vectordata23" dataDxfId="55"/>
+    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0000-000044000000}" name="Freq_65" dataDxfId="54"/>
+    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0000-000045000000}" name="year_66" dataDxfId="53"/>
+    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0000-000046000000}" name="vectordata24" dataDxfId="52"/>
+    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0000-000047000000}" name="Freq3" dataDxfId="51"/>
+    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0000-000048000000}" name="year4" dataDxfId="50"/>
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0000-000049000000}" name="vectordata25" dataDxfId="49"/>
+    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0000-00004A000000}" name="Freq_27" dataDxfId="48"/>
+    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0000-00004B000000}" name="year_38" dataDxfId="47"/>
+    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0000-00004C000000}" name="vectordata26" dataDxfId="46"/>
+    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0000-00004D000000}" name="Freq10" dataDxfId="45"/>
+    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0000-00004E000000}" name="year11" dataDxfId="44"/>
+    <tableColumn id="79" xr3:uid="{00000000-0010-0000-0000-00004F000000}" name="vectordata27" dataDxfId="43"/>
+    <tableColumn id="80" xr3:uid="{00000000-0010-0000-0000-000050000000}" name="Freq13" dataDxfId="42"/>
+    <tableColumn id="81" xr3:uid="{00000000-0010-0000-0000-000051000000}" name="year14" dataDxfId="41"/>
+    <tableColumn id="82" xr3:uid="{00000000-0010-0000-0000-000052000000}" name="vectordata28" dataDxfId="40"/>
+    <tableColumn id="83" xr3:uid="{00000000-0010-0000-0000-000053000000}" name="Freq16" dataDxfId="39"/>
+    <tableColumn id="84" xr3:uid="{00000000-0010-0000-0000-000054000000}" name="year17" dataDxfId="38"/>
+    <tableColumn id="85" xr3:uid="{00000000-0010-0000-0000-000055000000}" name="vectordata29" dataDxfId="37"/>
+    <tableColumn id="86" xr3:uid="{00000000-0010-0000-0000-000056000000}" name="Freq19" dataDxfId="36"/>
+    <tableColumn id="87" xr3:uid="{00000000-0010-0000-0000-000057000000}" name="year20" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="women2013_14" displayName="women2013_14" ref="A1:F51" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="women2013_14" displayName="women2013_14" ref="A1:F51" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F51" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="vectordata" queryTableFieldId="1" dataDxfId="95"/>
-    <tableColumn id="2" uniqueName="2" name="Freq" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="year" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="vectordata_1" queryTableFieldId="4" dataDxfId="94"/>
-    <tableColumn id="5" uniqueName="5" name="Freq_2" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="year_3" queryTableFieldId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="1" name="vectordata" queryTableFieldId="1" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" uniqueName="2" name="Freq" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="3" name="year" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" uniqueName="4" name="vectordata_1" queryTableFieldId="4" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" uniqueName="5" name="Freq_2" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" uniqueName="6" name="year_3" queryTableFieldId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="women2015" displayName="women2015" ref="A1:C51" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="women2015" displayName="women2015" ref="A1:C51" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C51" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="vectordata" queryTableFieldId="1" dataDxfId="93"/>
-    <tableColumn id="2" uniqueName="2" name="Freq" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="year" queryTableFieldId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="vectordata" queryTableFieldId="1" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" uniqueName="2" name="Freq" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" uniqueName="3" name="year" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="women2016" displayName="women2016" ref="A1:C51" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="women2016" displayName="women2016" ref="A1:C51" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C51" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="vectordata" queryTableFieldId="1" dataDxfId="92"/>
-    <tableColumn id="2" uniqueName="2" name="Freq" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="year" queryTableFieldId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" uniqueName="1" name="vectordata" queryTableFieldId="1" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" uniqueName="2" name="Freq" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" uniqueName="3" name="year" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="women2017" displayName="women2017" ref="A1:C51" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="women2017" displayName="women2017" ref="A1:C51" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C51" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="vectordata" queryTableFieldId="1" dataDxfId="91"/>
-    <tableColumn id="2" uniqueName="2" name="Freq" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="year" queryTableFieldId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" uniqueName="1" name="vectordata" queryTableFieldId="1" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" uniqueName="2" name="Freq" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" uniqueName="3" name="year" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="women2018" displayName="women2018" ref="A1:C51" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="women2018" displayName="women2018" ref="A1:C51" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C51" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="vectordata" queryTableFieldId="1" dataDxfId="90"/>
-    <tableColumn id="2" uniqueName="2" name="Freq" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="year" queryTableFieldId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" uniqueName="1" name="vectordata" queryTableFieldId="1" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" uniqueName="2" name="Freq" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" uniqueName="3" name="year" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="women" displayName="women" ref="A1:CI51" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:CI51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="women" displayName="women" ref="A1:CI51" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:CI51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="87">
-    <tableColumn id="1" uniqueName="1" name="vectordata" queryTableFieldId="1" dataDxfId="124"/>
-    <tableColumn id="2" uniqueName="2" name="Freq" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="year" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="vectordata_1" queryTableFieldId="4" dataDxfId="123"/>
-    <tableColumn id="5" uniqueName="5" name="Freq_2" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="year_3" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="vectordata_4" queryTableFieldId="7" dataDxfId="122"/>
-    <tableColumn id="8" uniqueName="8" name="Freq_5" queryTableFieldId="8"/>
-    <tableColumn id="9" uniqueName="9" name="year_6" queryTableFieldId="9"/>
-    <tableColumn id="10" uniqueName="10" name="vectordata_7" queryTableFieldId="10" dataDxfId="121"/>
-    <tableColumn id="11" uniqueName="11" name="Freq_8" queryTableFieldId="11"/>
-    <tableColumn id="12" uniqueName="12" name="year_9" queryTableFieldId="12"/>
-    <tableColumn id="13" uniqueName="13" name="vectordata_10" queryTableFieldId="13" dataDxfId="120"/>
-    <tableColumn id="14" uniqueName="14" name="Freq_11" queryTableFieldId="14"/>
-    <tableColumn id="15" uniqueName="15" name="year_12" queryTableFieldId="15"/>
-    <tableColumn id="16" uniqueName="16" name="vectordata_13" queryTableFieldId="16" dataDxfId="119"/>
-    <tableColumn id="17" uniqueName="17" name="Freq_14" queryTableFieldId="17"/>
-    <tableColumn id="18" uniqueName="18" name="year_15" queryTableFieldId="18"/>
-    <tableColumn id="19" uniqueName="19" name="vectordata_16" queryTableFieldId="19" dataDxfId="118"/>
-    <tableColumn id="20" uniqueName="20" name="Freq_17" queryTableFieldId="20"/>
-    <tableColumn id="21" uniqueName="21" name="year_18" queryTableFieldId="21"/>
-    <tableColumn id="22" uniqueName="22" name="vectordata_19" queryTableFieldId="22" dataDxfId="117"/>
-    <tableColumn id="23" uniqueName="23" name="Freq_20" queryTableFieldId="23"/>
-    <tableColumn id="24" uniqueName="24" name="year_21" queryTableFieldId="24"/>
-    <tableColumn id="25" uniqueName="25" name="vectordata_22" queryTableFieldId="25" dataDxfId="116"/>
-    <tableColumn id="26" uniqueName="26" name="Freq_23" queryTableFieldId="26"/>
-    <tableColumn id="27" uniqueName="27" name="year_24" queryTableFieldId="27"/>
-    <tableColumn id="28" uniqueName="28" name="vectordata_25" queryTableFieldId="28" dataDxfId="115"/>
-    <tableColumn id="29" uniqueName="29" name="Freq_26" queryTableFieldId="29"/>
-    <tableColumn id="30" uniqueName="30" name="year_27" queryTableFieldId="30"/>
-    <tableColumn id="31" uniqueName="31" name="vectordata_28" queryTableFieldId="31" dataDxfId="114"/>
-    <tableColumn id="32" uniqueName="32" name="Freq_29" queryTableFieldId="32"/>
-    <tableColumn id="33" uniqueName="33" name="year_30" queryTableFieldId="33"/>
-    <tableColumn id="34" uniqueName="34" name="vectordata_31" queryTableFieldId="34" dataDxfId="113"/>
-    <tableColumn id="35" uniqueName="35" name="Freq_32" queryTableFieldId="35"/>
-    <tableColumn id="36" uniqueName="36" name="year_33" queryTableFieldId="36"/>
-    <tableColumn id="37" uniqueName="37" name="vectordata_34" queryTableFieldId="37" dataDxfId="112"/>
-    <tableColumn id="38" uniqueName="38" name="Freq_35" queryTableFieldId="38"/>
-    <tableColumn id="39" uniqueName="39" name="year_36" queryTableFieldId="39"/>
-    <tableColumn id="40" uniqueName="40" name="vectordata_37" queryTableFieldId="40" dataDxfId="111"/>
-    <tableColumn id="41" uniqueName="41" name="Freq_38" queryTableFieldId="41"/>
-    <tableColumn id="42" uniqueName="42" name="year_39" queryTableFieldId="42"/>
-    <tableColumn id="43" uniqueName="43" name="vectordata_40" queryTableFieldId="43" dataDxfId="110"/>
-    <tableColumn id="44" uniqueName="44" name="Freq_41" queryTableFieldId="44"/>
-    <tableColumn id="45" uniqueName="45" name="year_42" queryTableFieldId="45"/>
-    <tableColumn id="46" uniqueName="46" name="vectordata_43" queryTableFieldId="46" dataDxfId="109"/>
-    <tableColumn id="47" uniqueName="47" name="Freq_44" queryTableFieldId="47"/>
-    <tableColumn id="48" uniqueName="48" name="year_45" queryTableFieldId="48"/>
-    <tableColumn id="49" uniqueName="49" name="vectordata_46" queryTableFieldId="49" dataDxfId="108"/>
-    <tableColumn id="50" uniqueName="50" name="Freq_47" queryTableFieldId="50"/>
-    <tableColumn id="51" uniqueName="51" name="year_48" queryTableFieldId="51"/>
-    <tableColumn id="52" uniqueName="52" name="vectordata_49" queryTableFieldId="52" dataDxfId="107"/>
-    <tableColumn id="53" uniqueName="53" name="Freq_50" queryTableFieldId="53"/>
-    <tableColumn id="54" uniqueName="54" name="year_51" queryTableFieldId="54"/>
-    <tableColumn id="55" uniqueName="55" name="vectordata_52" queryTableFieldId="55" dataDxfId="106"/>
-    <tableColumn id="56" uniqueName="56" name="Freq_53" queryTableFieldId="56"/>
-    <tableColumn id="57" uniqueName="57" name="year_54" queryTableFieldId="57"/>
-    <tableColumn id="58" uniqueName="58" name="vectordata_55" queryTableFieldId="58" dataDxfId="105"/>
-    <tableColumn id="59" uniqueName="59" name="Freq_56" queryTableFieldId="59"/>
-    <tableColumn id="60" uniqueName="60" name="year_57" queryTableFieldId="60"/>
-    <tableColumn id="61" uniqueName="61" name="vectordata_58" queryTableFieldId="61" dataDxfId="104"/>
-    <tableColumn id="62" uniqueName="62" name="Freq_59" queryTableFieldId="62"/>
-    <tableColumn id="63" uniqueName="63" name="year_60" queryTableFieldId="63"/>
-    <tableColumn id="64" uniqueName="64" name="vectordata_61" queryTableFieldId="64" dataDxfId="103"/>
-    <tableColumn id="65" uniqueName="65" name="Freq_62" queryTableFieldId="65"/>
-    <tableColumn id="66" uniqueName="66" name="year_63" queryTableFieldId="66"/>
-    <tableColumn id="67" uniqueName="67" name="vectordata_64" queryTableFieldId="67" dataDxfId="102"/>
-    <tableColumn id="68" uniqueName="68" name="Freq_65" queryTableFieldId="68"/>
-    <tableColumn id="69" uniqueName="69" name="year_66" queryTableFieldId="69"/>
-    <tableColumn id="70" uniqueName="70" name="vectordata_67" queryTableFieldId="70" dataDxfId="101"/>
-    <tableColumn id="71" uniqueName="71" name="Freq_68" queryTableFieldId="71"/>
-    <tableColumn id="72" uniqueName="72" name="year_69" queryTableFieldId="72"/>
-    <tableColumn id="73" uniqueName="73" name="vectordata_70" queryTableFieldId="73" dataDxfId="100"/>
-    <tableColumn id="74" uniqueName="74" name="Freq_71" queryTableFieldId="74"/>
-    <tableColumn id="75" uniqueName="75" name="year_72" queryTableFieldId="75"/>
-    <tableColumn id="76" uniqueName="76" name="vectordata_73" queryTableFieldId="76" dataDxfId="99"/>
-    <tableColumn id="77" uniqueName="77" name="Freq_74" queryTableFieldId="77"/>
-    <tableColumn id="78" uniqueName="78" name="year_75" queryTableFieldId="78"/>
-    <tableColumn id="79" uniqueName="79" name="vectordata_76" queryTableFieldId="79" dataDxfId="98"/>
-    <tableColumn id="80" uniqueName="80" name="Freq_77" queryTableFieldId="80"/>
-    <tableColumn id="81" uniqueName="81" name="year_78" queryTableFieldId="81"/>
-    <tableColumn id="82" uniqueName="82" name="vectordata_79" queryTableFieldId="82" dataDxfId="97"/>
-    <tableColumn id="83" uniqueName="83" name="Freq_80" queryTableFieldId="83"/>
-    <tableColumn id="84" uniqueName="84" name="year_81" queryTableFieldId="84"/>
-    <tableColumn id="85" uniqueName="85" name="vectordata_82" queryTableFieldId="85" dataDxfId="96"/>
-    <tableColumn id="86" uniqueName="86" name="Freq_83" queryTableFieldId="86"/>
-    <tableColumn id="87" uniqueName="87" name="year_84" queryTableFieldId="87"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" uniqueName="1" name="vectordata" queryTableFieldId="1" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" uniqueName="2" name="Freq" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" uniqueName="3" name="year" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" uniqueName="4" name="vectordata_1" queryTableFieldId="4" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" uniqueName="5" name="Freq_2" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" uniqueName="6" name="year_3" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" uniqueName="7" name="vectordata_4" queryTableFieldId="7" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" uniqueName="8" name="Freq_5" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" uniqueName="9" name="year_6" queryTableFieldId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" uniqueName="10" name="vectordata_7" queryTableFieldId="10" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0600-00000B000000}" uniqueName="11" name="Freq_8" queryTableFieldId="11"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0600-00000C000000}" uniqueName="12" name="year_9" queryTableFieldId="12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0600-00000D000000}" uniqueName="13" name="vectordata_10" queryTableFieldId="13" dataDxfId="24"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0600-00000E000000}" uniqueName="14" name="Freq_11" queryTableFieldId="14"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0600-00000F000000}" uniqueName="15" name="year_12" queryTableFieldId="15"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0600-000010000000}" uniqueName="16" name="vectordata_13" queryTableFieldId="16" dataDxfId="23"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0600-000011000000}" uniqueName="17" name="Freq_14" queryTableFieldId="17"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0600-000012000000}" uniqueName="18" name="year_15" queryTableFieldId="18"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0600-000013000000}" uniqueName="19" name="vectordata_16" queryTableFieldId="19" dataDxfId="22"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0600-000014000000}" uniqueName="20" name="Freq_17" queryTableFieldId="20"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0600-000015000000}" uniqueName="21" name="year_18" queryTableFieldId="21"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0600-000016000000}" uniqueName="22" name="vectordata_19" queryTableFieldId="22" dataDxfId="21"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0600-000017000000}" uniqueName="23" name="Freq_20" queryTableFieldId="23"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0600-000018000000}" uniqueName="24" name="year_21" queryTableFieldId="24"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0600-000019000000}" uniqueName="25" name="vectordata_22" queryTableFieldId="25" dataDxfId="20"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0600-00001A000000}" uniqueName="26" name="Freq_23" queryTableFieldId="26"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0600-00001B000000}" uniqueName="27" name="year_24" queryTableFieldId="27"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0600-00001C000000}" uniqueName="28" name="vectordata_25" queryTableFieldId="28" dataDxfId="19"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0600-00001D000000}" uniqueName="29" name="Freq_26" queryTableFieldId="29"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0600-00001E000000}" uniqueName="30" name="year_27" queryTableFieldId="30"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0600-00001F000000}" uniqueName="31" name="vectordata_28" queryTableFieldId="31" dataDxfId="18"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0600-000020000000}" uniqueName="32" name="Freq_29" queryTableFieldId="32"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0600-000021000000}" uniqueName="33" name="year_30" queryTableFieldId="33"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0600-000022000000}" uniqueName="34" name="vectordata_31" queryTableFieldId="34" dataDxfId="17"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0600-000023000000}" uniqueName="35" name="Freq_32" queryTableFieldId="35"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0600-000024000000}" uniqueName="36" name="year_33" queryTableFieldId="36"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0600-000025000000}" uniqueName="37" name="vectordata_34" queryTableFieldId="37" dataDxfId="16"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0600-000026000000}" uniqueName="38" name="Freq_35" queryTableFieldId="38"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0600-000027000000}" uniqueName="39" name="year_36" queryTableFieldId="39"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0600-000028000000}" uniqueName="40" name="vectordata_37" queryTableFieldId="40" dataDxfId="15"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0600-000029000000}" uniqueName="41" name="Freq_38" queryTableFieldId="41"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0600-00002A000000}" uniqueName="42" name="year_39" queryTableFieldId="42"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0600-00002B000000}" uniqueName="43" name="vectordata_40" queryTableFieldId="43" dataDxfId="14"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0600-00002C000000}" uniqueName="44" name="Freq_41" queryTableFieldId="44"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0600-00002D000000}" uniqueName="45" name="year_42" queryTableFieldId="45"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0600-00002E000000}" uniqueName="46" name="vectordata_43" queryTableFieldId="46" dataDxfId="13"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0600-00002F000000}" uniqueName="47" name="Freq_44" queryTableFieldId="47"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0600-000030000000}" uniqueName="48" name="year_45" queryTableFieldId="48"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0600-000031000000}" uniqueName="49" name="vectordata_46" queryTableFieldId="49" dataDxfId="12"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0600-000032000000}" uniqueName="50" name="Freq_47" queryTableFieldId="50"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0600-000033000000}" uniqueName="51" name="year_48" queryTableFieldId="51"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0600-000034000000}" uniqueName="52" name="vectordata_49" queryTableFieldId="52" dataDxfId="11"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0600-000035000000}" uniqueName="53" name="Freq_50" queryTableFieldId="53"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0600-000036000000}" uniqueName="54" name="year_51" queryTableFieldId="54"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0600-000037000000}" uniqueName="55" name="vectordata_52" queryTableFieldId="55" dataDxfId="10"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0600-000038000000}" uniqueName="56" name="Freq_53" queryTableFieldId="56"/>
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0600-000039000000}" uniqueName="57" name="year_54" queryTableFieldId="57"/>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0600-00003A000000}" uniqueName="58" name="vectordata_55" queryTableFieldId="58" dataDxfId="9"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0600-00003B000000}" uniqueName="59" name="Freq_56" queryTableFieldId="59"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0600-00003C000000}" uniqueName="60" name="year_57" queryTableFieldId="60"/>
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0600-00003D000000}" uniqueName="61" name="vectordata_58" queryTableFieldId="61" dataDxfId="8"/>
+    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0600-00003E000000}" uniqueName="62" name="Freq_59" queryTableFieldId="62"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0600-00003F000000}" uniqueName="63" name="year_60" queryTableFieldId="63"/>
+    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0600-000040000000}" uniqueName="64" name="vectordata_61" queryTableFieldId="64" dataDxfId="7"/>
+    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0600-000041000000}" uniqueName="65" name="Freq_62" queryTableFieldId="65"/>
+    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0600-000042000000}" uniqueName="66" name="year_63" queryTableFieldId="66"/>
+    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0600-000043000000}" uniqueName="67" name="vectordata_64" queryTableFieldId="67" dataDxfId="6"/>
+    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0600-000044000000}" uniqueName="68" name="Freq_65" queryTableFieldId="68"/>
+    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0600-000045000000}" uniqueName="69" name="year_66" queryTableFieldId="69"/>
+    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0600-000046000000}" uniqueName="70" name="vectordata_67" queryTableFieldId="70" dataDxfId="5"/>
+    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0600-000047000000}" uniqueName="71" name="Freq_68" queryTableFieldId="71"/>
+    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0600-000048000000}" uniqueName="72" name="year_69" queryTableFieldId="72"/>
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0600-000049000000}" uniqueName="73" name="vectordata_70" queryTableFieldId="73" dataDxfId="4"/>
+    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0600-00004A000000}" uniqueName="74" name="Freq_71" queryTableFieldId="74"/>
+    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0600-00004B000000}" uniqueName="75" name="year_72" queryTableFieldId="75"/>
+    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0600-00004C000000}" uniqueName="76" name="vectordata_73" queryTableFieldId="76" dataDxfId="3"/>
+    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0600-00004D000000}" uniqueName="77" name="Freq_74" queryTableFieldId="77"/>
+    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0600-00004E000000}" uniqueName="78" name="year_75" queryTableFieldId="78"/>
+    <tableColumn id="79" xr3:uid="{00000000-0010-0000-0600-00004F000000}" uniqueName="79" name="vectordata_76" queryTableFieldId="79" dataDxfId="2"/>
+    <tableColumn id="80" xr3:uid="{00000000-0010-0000-0600-000050000000}" uniqueName="80" name="Freq_77" queryTableFieldId="80"/>
+    <tableColumn id="81" xr3:uid="{00000000-0010-0000-0600-000051000000}" uniqueName="81" name="year_78" queryTableFieldId="81"/>
+    <tableColumn id="82" xr3:uid="{00000000-0010-0000-0600-000052000000}" uniqueName="82" name="vectordata_79" queryTableFieldId="82" dataDxfId="1"/>
+    <tableColumn id="83" xr3:uid="{00000000-0010-0000-0600-000053000000}" uniqueName="83" name="Freq_80" queryTableFieldId="83"/>
+    <tableColumn id="84" xr3:uid="{00000000-0010-0000-0600-000054000000}" uniqueName="84" name="year_81" queryTableFieldId="84"/>
+    <tableColumn id="85" xr3:uid="{00000000-0010-0000-0600-000055000000}" uniqueName="85" name="vectordata_82" queryTableFieldId="85" dataDxfId="0"/>
+    <tableColumn id="86" xr3:uid="{00000000-0010-0000-0600-000056000000}" uniqueName="86" name="Freq_83" queryTableFieldId="86"/>
+    <tableColumn id="87" xr3:uid="{00000000-0010-0000-0600-000057000000}" uniqueName="87" name="year_84" queryTableFieldId="87"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4899,12 +4968,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -4986,7 +5053,7 @@
   <sheetData>
     <row r="1" spans="1:87">
       <c r="A1" s="10" t="s">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
@@ -4995,7 +5062,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>3</v>
+        <v>229</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>4</v>
@@ -5004,7 +5071,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>6</v>
+        <v>248</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>7</v>
@@ -5013,7 +5080,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>9</v>
+        <v>249</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>10</v>
@@ -5022,7 +5089,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="N1" s="10" t="s">
         <v>13</v>
@@ -5031,7 +5098,7 @@
         <v>14</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>15</v>
+        <v>251</v>
       </c>
       <c r="Q1" s="10" t="s">
         <v>16</v>
@@ -5040,7 +5107,7 @@
         <v>17</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="T1" s="10" t="s">
         <v>19</v>
@@ -5049,7 +5116,7 @@
         <v>20</v>
       </c>
       <c r="V1" s="10" t="s">
-        <v>21</v>
+        <v>253</v>
       </c>
       <c r="W1" s="10" t="s">
         <v>22</v>
@@ -5058,7 +5125,7 @@
         <v>23</v>
       </c>
       <c r="Y1" s="10" t="s">
-        <v>24</v>
+        <v>234</v>
       </c>
       <c r="Z1" s="10" t="s">
         <v>25</v>
@@ -5067,7 +5134,7 @@
         <v>26</v>
       </c>
       <c r="AB1" s="10" t="s">
-        <v>27</v>
+        <v>254</v>
       </c>
       <c r="AC1" s="10" t="s">
         <v>28</v>
@@ -5076,7 +5143,7 @@
         <v>29</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>30</v>
+        <v>255</v>
       </c>
       <c r="AF1" s="10" t="s">
         <v>31</v>
@@ -5085,7 +5152,7 @@
         <v>32</v>
       </c>
       <c r="AH1" s="10" t="s">
-        <v>33</v>
+        <v>237</v>
       </c>
       <c r="AI1" s="10" t="s">
         <v>34</v>
@@ -5094,7 +5161,7 @@
         <v>35</v>
       </c>
       <c r="AK1" s="10" t="s">
-        <v>36</v>
+        <v>256</v>
       </c>
       <c r="AL1" s="10" t="s">
         <v>37</v>
@@ -5103,7 +5170,7 @@
         <v>38</v>
       </c>
       <c r="AN1" s="10" t="s">
-        <v>39</v>
+        <v>257</v>
       </c>
       <c r="AO1" s="10" t="s">
         <v>40</v>
@@ -5112,7 +5179,7 @@
         <v>41</v>
       </c>
       <c r="AQ1" s="10" t="s">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="AR1" s="10" t="s">
         <v>43</v>
@@ -5121,7 +5188,7 @@
         <v>44</v>
       </c>
       <c r="AT1" s="10" t="s">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="AU1" s="10" t="s">
         <v>46</v>
@@ -5130,7 +5197,7 @@
         <v>47</v>
       </c>
       <c r="AW1" s="10" t="s">
-        <v>48</v>
+        <v>259</v>
       </c>
       <c r="AX1" s="10" t="s">
         <v>49</v>
@@ -5139,7 +5206,7 @@
         <v>50</v>
       </c>
       <c r="AZ1" s="10" t="s">
-        <v>51</v>
+        <v>243</v>
       </c>
       <c r="BA1" s="10" t="s">
         <v>52</v>
@@ -5148,7 +5215,7 @@
         <v>53</v>
       </c>
       <c r="BC1" s="10" t="s">
-        <v>54</v>
+        <v>260</v>
       </c>
       <c r="BD1" s="10" t="s">
         <v>55</v>
@@ -5157,7 +5224,7 @@
         <v>56</v>
       </c>
       <c r="BF1" s="10" t="s">
-        <v>57</v>
+        <v>261</v>
       </c>
       <c r="BG1" s="10" t="s">
         <v>58</v>
@@ -5166,7 +5233,7 @@
         <v>59</v>
       </c>
       <c r="BI1" s="10" t="s">
-        <v>60</v>
+        <v>262</v>
       </c>
       <c r="BJ1" s="10" t="s">
         <v>61</v>
@@ -5175,7 +5242,7 @@
         <v>62</v>
       </c>
       <c r="BL1" s="10" t="s">
-        <v>63</v>
+        <v>247</v>
       </c>
       <c r="BM1" s="10" t="s">
         <v>64</v>
@@ -5184,7 +5251,7 @@
         <v>65</v>
       </c>
       <c r="BO1" s="10" t="s">
-        <v>66</v>
+        <v>263</v>
       </c>
       <c r="BP1" s="10" t="s">
         <v>67</v>
@@ -5193,7 +5260,7 @@
         <v>68</v>
       </c>
       <c r="BR1" s="12" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="BS1" s="10" t="s">
         <v>230</v>
@@ -5202,49 +5269,49 @@
         <v>231</v>
       </c>
       <c r="BU1" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="BV1" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="BV1" s="10" t="s">
+      <c r="BW1" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="BW1" s="11" t="s">
-        <v>234</v>
-      </c>
       <c r="BX1" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="BY1" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="BY1" s="10" t="s">
+      <c r="BZ1" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="BZ1" s="11" t="s">
-        <v>237</v>
-      </c>
       <c r="CA1" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="CB1" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="CB1" s="10" t="s">
+      <c r="CC1" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="CC1" s="11" t="s">
-        <v>240</v>
-      </c>
       <c r="CD1" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="CE1" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="CE1" s="10" t="s">
+      <c r="CF1" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="CF1" s="11" t="s">
-        <v>243</v>
-      </c>
       <c r="CG1" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="CH1" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="CH1" s="10" t="s">
+      <c r="CI1" s="10" t="s">
         <v>245</v>
-      </c>
-      <c r="CI1" s="10" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:87">
@@ -18407,7 +18474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -19452,7 +19519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -20036,7 +20103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -20620,7 +20687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -21204,7 +21271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -21788,7 +21855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:CI51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -35303,7 +35370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:CI51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
